--- a/REVER_DailyTracker_Mamatha_November.xlsx
+++ b/REVER_DailyTracker_Mamatha_November.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3865A98A-1AC7-42AE-901E-53595C16D960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF8E0A-D9FB-48D5-BC73-ED011792824E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="107">
   <si>
     <t>Task</t>
   </si>
@@ -276,6 +276,87 @@
   </si>
   <si>
     <t xml:space="preserve">For Services </t>
+  </si>
+  <si>
+    <t>HAYAAi-B2B</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>13/11/2020</t>
+  </si>
+  <si>
+    <t>18/11/2020</t>
+  </si>
+  <si>
+    <t>16/11/2020</t>
+  </si>
+  <si>
+    <t>Rlogic - GL</t>
+  </si>
+  <si>
+    <t>Started with Rlogic general ledger task</t>
+  </si>
+  <si>
+    <t>17/11/2020</t>
+  </si>
+  <si>
+    <t>Rlogic general ledger task</t>
+  </si>
+  <si>
+    <t>19/11/2020</t>
+  </si>
+  <si>
+    <t>Rlogic-PL</t>
+  </si>
+  <si>
+    <t>Call wise data calculations</t>
+  </si>
+  <si>
+    <t>20/11/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rlogic general ledger task,corrections from Rahman san,done those</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rlogic general ledger task,completed</t>
+  </si>
+  <si>
+    <t>Rlogic-GL</t>
+  </si>
+  <si>
+    <t>P&amp;L,Parts IO donwload done</t>
+  </si>
+  <si>
+    <t>23/11/2020</t>
+  </si>
+  <si>
+    <t>Formula cauclations from Rahman San as P&amp;L formula changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call wise merging with VLOOKUP </t>
+  </si>
+  <si>
+    <t>24/11/2020</t>
+  </si>
+  <si>
+    <t>25/11/2020</t>
+  </si>
+  <si>
+    <t>26/11/2020</t>
+  </si>
+  <si>
+    <t>27/11/2020</t>
+  </si>
+  <si>
+    <t>Since Callwise data sheet changed,had to modify the code</t>
+  </si>
+  <si>
+    <t>30/11/2020</t>
   </si>
 </sst>
 </file>
@@ -285,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,22 +419,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF262626"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF262626"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -458,9 +526,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -574,13 +642,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2129,14 +2191,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="60" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="58" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
@@ -2148,7 +2210,7 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2171,7 +2233,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="54">
         <v>43872</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2192,7 +2254,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="56"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2210,116 +2272,305 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="B4" s="57"/>
+      <c r="B4" s="55"/>
       <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="B5" s="57"/>
-      <c r="E5" s="46"/>
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="55">
+        <v>43901</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="B6" s="57"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="55">
+        <v>43932</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>82</v>
+      </c>
       <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="B7" s="57"/>
+      <c r="A7" s="47">
+        <v>4</v>
+      </c>
+      <c r="B7" s="55">
+        <v>43962</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="B8" s="57"/>
+      <c r="B8" s="55">
+        <v>43993</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>82</v>
+      </c>
       <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="B9" s="57"/>
+      <c r="B9" s="55">
+        <v>44085</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>82</v>
+      </c>
       <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="B10" s="57"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="55">
+        <v>44115</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="B11" s="57"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="55">
+        <v>44146</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>82</v>
+      </c>
       <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="B12" s="57"/>
+      <c r="B12" s="55">
+        <v>44176</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>82</v>
+      </c>
       <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="B13" s="57"/>
+      <c r="B13" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>82</v>
+      </c>
       <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="B14" s="57"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="B15" s="57"/>
-      <c r="E15" s="46"/>
+      <c r="B15" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
       <c r="A16" s="47"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1">
+      <c r="B16" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="46">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="28.8">
       <c r="A17" s="47"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
+      <c r="B17" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
       <c r="A18" s="47"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1">
+      <c r="B18" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="28.8">
       <c r="A19" s="47"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="47"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="47"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="46">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="47"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="D23" s="53"/>
+      <c r="B23" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8">
+      <c r="B24" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="D25" s="54"/>
+      <c r="D25" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
